--- a/biology/Médecine/Remy_Lamah/Remy_Lamah.xlsx
+++ b/biology/Médecine/Remy_Lamah/Remy_Lamah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le médecin-Général Remy Lamah[1] est un officier et homme politique guinéen   
+Le médecin-Général Remy Lamah est un officier et homme politique guinéen   
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir géré l'épidémie de maladie à virus Ebola dans son pays[1], il est confronté à la pandémie de Covid-19 en Guinée en 2020[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir géré l'épidémie de maladie à virus Ebola dans son pays, il est confronté à la pandémie de Covid-19 en Guinée en 2020.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Remy Lamah est grand officier de l'Ordre national du Mérite de la République française[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remy Lamah est grand officier de l'Ordre national du Mérite de la République française.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Ministre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé sous la présidence d'Alpha Condé, ministre de la santé et de l'hygiène publique dans le gouvernement Saïd Fofana (2) en 2014[3] et dans le Gouvernement Kassory I en 2019[4] puis reconduit sans le second gouvernement Kassory de janvier en septembre 2021.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé sous la présidence d'Alpha Condé, ministre de la santé et de l'hygiène publique dans le gouvernement Saïd Fofana (2) en 2014 et dans le Gouvernement Kassory I en 2019 puis reconduit sans le second gouvernement Kassory de janvier en septembre 2021.
 </t>
         </is>
       </c>
